--- a/_data/DOTUSDT_4h.xlsx
+++ b/_data/DOTUSDT_4h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1084"/>
+  <dimension ref="A1:F1117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22081,6 +22081,666 @@
         <v>144138.57</v>
       </c>
     </row>
+    <row r="1085" spans="1:6">
+      <c r="A1085" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1085">
+        <v>4.272</v>
+      </c>
+      <c r="C1085">
+        <v>4.314</v>
+      </c>
+      <c r="D1085">
+        <v>4.101</v>
+      </c>
+      <c r="E1085">
+        <v>4.12</v>
+      </c>
+      <c r="F1085">
+        <v>904915.2</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6">
+      <c r="A1086" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1086">
+        <v>4.121</v>
+      </c>
+      <c r="C1086">
+        <v>4.276</v>
+      </c>
+      <c r="D1086">
+        <v>4.103</v>
+      </c>
+      <c r="E1086">
+        <v>4.223</v>
+      </c>
+      <c r="F1086">
+        <v>653071.03</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1087">
+        <v>4.222</v>
+      </c>
+      <c r="C1087">
+        <v>4.291</v>
+      </c>
+      <c r="D1087">
+        <v>4.222</v>
+      </c>
+      <c r="E1087">
+        <v>4.277</v>
+      </c>
+      <c r="F1087">
+        <v>206067.34</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1088">
+        <v>4.277</v>
+      </c>
+      <c r="C1088">
+        <v>4.313</v>
+      </c>
+      <c r="D1088">
+        <v>4.276</v>
+      </c>
+      <c r="E1088">
+        <v>4.293</v>
+      </c>
+      <c r="F1088">
+        <v>205668.45</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1089">
+        <v>4.294</v>
+      </c>
+      <c r="C1089">
+        <v>4.318</v>
+      </c>
+      <c r="D1089">
+        <v>4.288</v>
+      </c>
+      <c r="E1089">
+        <v>4.289</v>
+      </c>
+      <c r="F1089">
+        <v>223582</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1090">
+        <v>4.288</v>
+      </c>
+      <c r="C1090">
+        <v>4.299</v>
+      </c>
+      <c r="D1090">
+        <v>4.259</v>
+      </c>
+      <c r="E1090">
+        <v>4.287</v>
+      </c>
+      <c r="F1090">
+        <v>165031.54</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1091">
+        <v>4.286</v>
+      </c>
+      <c r="C1091">
+        <v>4.288</v>
+      </c>
+      <c r="D1091">
+        <v>4.25</v>
+      </c>
+      <c r="E1091">
+        <v>4.269</v>
+      </c>
+      <c r="F1091">
+        <v>192231.09</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1092">
+        <v>4.27</v>
+      </c>
+      <c r="C1092">
+        <v>4.274</v>
+      </c>
+      <c r="D1092">
+        <v>4.218</v>
+      </c>
+      <c r="E1092">
+        <v>4.241</v>
+      </c>
+      <c r="F1092">
+        <v>206844.42</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1093">
+        <v>4.24</v>
+      </c>
+      <c r="C1093">
+        <v>4.246</v>
+      </c>
+      <c r="D1093">
+        <v>4.228</v>
+      </c>
+      <c r="E1093">
+        <v>4.245</v>
+      </c>
+      <c r="F1093">
+        <v>53643.8</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1094">
+        <v>4.259</v>
+      </c>
+      <c r="C1094">
+        <v>4.259</v>
+      </c>
+      <c r="D1094">
+        <v>4.186</v>
+      </c>
+      <c r="E1094">
+        <v>4.219</v>
+      </c>
+      <c r="F1094">
+        <v>226796.4</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1095">
+        <v>4.22</v>
+      </c>
+      <c r="C1095">
+        <v>4.225</v>
+      </c>
+      <c r="D1095">
+        <v>4.144</v>
+      </c>
+      <c r="E1095">
+        <v>4.203</v>
+      </c>
+      <c r="F1095">
+        <v>514495.51</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1096">
+        <v>4.203</v>
+      </c>
+      <c r="C1096">
+        <v>4.206</v>
+      </c>
+      <c r="D1096">
+        <v>4.155</v>
+      </c>
+      <c r="E1096">
+        <v>4.192</v>
+      </c>
+      <c r="F1096">
+        <v>235809.43</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1097">
+        <v>4.193</v>
+      </c>
+      <c r="C1097">
+        <v>4.199</v>
+      </c>
+      <c r="D1097">
+        <v>4.108</v>
+      </c>
+      <c r="E1097">
+        <v>4.189</v>
+      </c>
+      <c r="F1097">
+        <v>551604.78</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1098">
+        <v>4.186</v>
+      </c>
+      <c r="C1098">
+        <v>4.201</v>
+      </c>
+      <c r="D1098">
+        <v>4.142</v>
+      </c>
+      <c r="E1098">
+        <v>4.155</v>
+      </c>
+      <c r="F1098">
+        <v>111280.6</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1099">
+        <v>4.195</v>
+      </c>
+      <c r="C1099">
+        <v>4.217</v>
+      </c>
+      <c r="D1099">
+        <v>4.032</v>
+      </c>
+      <c r="E1099">
+        <v>4.068</v>
+      </c>
+      <c r="F1099">
+        <v>529925.61</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1100">
+        <v>4.068</v>
+      </c>
+      <c r="C1100">
+        <v>4.126</v>
+      </c>
+      <c r="D1100">
+        <v>4.067</v>
+      </c>
+      <c r="E1100">
+        <v>4.115</v>
+      </c>
+      <c r="F1100">
+        <v>337326.93</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1101">
+        <v>4.114</v>
+      </c>
+      <c r="C1101">
+        <v>4.133</v>
+      </c>
+      <c r="D1101">
+        <v>4.051</v>
+      </c>
+      <c r="E1101">
+        <v>4.073</v>
+      </c>
+      <c r="F1101">
+        <v>285375.06</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1102">
+        <v>4.072</v>
+      </c>
+      <c r="C1102">
+        <v>4.209</v>
+      </c>
+      <c r="D1102">
+        <v>4.072</v>
+      </c>
+      <c r="E1102">
+        <v>4.19</v>
+      </c>
+      <c r="F1102">
+        <v>470763.11</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1103">
+        <v>4.19</v>
+      </c>
+      <c r="C1103">
+        <v>4.203</v>
+      </c>
+      <c r="D1103">
+        <v>4.177</v>
+      </c>
+      <c r="E1103">
+        <v>4.18</v>
+      </c>
+      <c r="F1103">
+        <v>48470.04</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1104">
+        <v>4.157</v>
+      </c>
+      <c r="C1104">
+        <v>4.174</v>
+      </c>
+      <c r="D1104">
+        <v>4.135</v>
+      </c>
+      <c r="E1104">
+        <v>4.166</v>
+      </c>
+      <c r="F1104">
+        <v>245789.61</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1105">
+        <v>4.167</v>
+      </c>
+      <c r="C1105">
+        <v>4.234</v>
+      </c>
+      <c r="D1105">
+        <v>4.163</v>
+      </c>
+      <c r="E1105">
+        <v>4.208</v>
+      </c>
+      <c r="F1105">
+        <v>338397.99</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1106">
+        <v>4.209</v>
+      </c>
+      <c r="C1106">
+        <v>4.279</v>
+      </c>
+      <c r="D1106">
+        <v>4.2</v>
+      </c>
+      <c r="E1106">
+        <v>4.259</v>
+      </c>
+      <c r="F1106">
+        <v>271316.83</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1107">
+        <v>4.259</v>
+      </c>
+      <c r="C1107">
+        <v>4.268</v>
+      </c>
+      <c r="D1107">
+        <v>4.232</v>
+      </c>
+      <c r="E1107">
+        <v>4.265</v>
+      </c>
+      <c r="F1107">
+        <v>226666.16</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1108">
+        <v>4.264</v>
+      </c>
+      <c r="C1108">
+        <v>4.275</v>
+      </c>
+      <c r="D1108">
+        <v>4.225</v>
+      </c>
+      <c r="E1108">
+        <v>4.265</v>
+      </c>
+      <c r="F1108">
+        <v>291531.36</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1109">
+        <v>4.264</v>
+      </c>
+      <c r="C1109">
+        <v>4.285</v>
+      </c>
+      <c r="D1109">
+        <v>4.096</v>
+      </c>
+      <c r="E1109">
+        <v>4.108</v>
+      </c>
+      <c r="F1109">
+        <v>656828.17</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1110">
+        <v>4.107</v>
+      </c>
+      <c r="C1110">
+        <v>4.155</v>
+      </c>
+      <c r="D1110">
+        <v>4.096</v>
+      </c>
+      <c r="E1110">
+        <v>4.106</v>
+      </c>
+      <c r="F1110">
+        <v>340668.21</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1111">
+        <v>4.107</v>
+      </c>
+      <c r="C1111">
+        <v>4.138</v>
+      </c>
+      <c r="D1111">
+        <v>4.056</v>
+      </c>
+      <c r="E1111">
+        <v>4.062</v>
+      </c>
+      <c r="F1111">
+        <v>258208.62</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1112">
+        <v>4.063</v>
+      </c>
+      <c r="C1112">
+        <v>4.097</v>
+      </c>
+      <c r="D1112">
+        <v>3.868</v>
+      </c>
+      <c r="E1112">
+        <v>4.038</v>
+      </c>
+      <c r="F1112">
+        <v>1457628.99</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1113">
+        <v>4.037</v>
+      </c>
+      <c r="C1113">
+        <v>4.09</v>
+      </c>
+      <c r="D1113">
+        <v>4.032</v>
+      </c>
+      <c r="E1113">
+        <v>4.084</v>
+      </c>
+      <c r="F1113">
+        <v>396648</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1114">
+        <v>4.085</v>
+      </c>
+      <c r="C1114">
+        <v>4.09</v>
+      </c>
+      <c r="D1114">
+        <v>4.012</v>
+      </c>
+      <c r="E1114">
+        <v>4.015</v>
+      </c>
+      <c r="F1114">
+        <v>253305.29</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1115">
+        <v>4.015</v>
+      </c>
+      <c r="C1115">
+        <v>4.162</v>
+      </c>
+      <c r="D1115">
+        <v>4.004</v>
+      </c>
+      <c r="E1115">
+        <v>4.157</v>
+      </c>
+      <c r="F1115">
+        <v>1208452.02</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1116">
+        <v>4.156</v>
+      </c>
+      <c r="C1116">
+        <v>4.197</v>
+      </c>
+      <c r="D1116">
+        <v>4.095</v>
+      </c>
+      <c r="E1116">
+        <v>4.109</v>
+      </c>
+      <c r="F1116">
+        <v>486254.04</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1117">
+        <v>4.123</v>
+      </c>
+      <c r="C1117">
+        <v>4.126</v>
+      </c>
+      <c r="D1117">
+        <v>4.122</v>
+      </c>
+      <c r="E1117">
+        <v>4.124</v>
+      </c>
+      <c r="F1117">
+        <v>468.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
